--- a/BalanceSheet/FISV_bal.xlsx
+++ b/BalanceSheet/FISV_bal.xlsx
@@ -4548,7 +4548,7 @@
         <v>21072000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>21749000000.0</v>
+        <v>21006000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>21463000000.0</v>
@@ -4675,7 +4675,7 @@
         <v>21968000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>22642000000.0</v>
+        <v>21899000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>22491000000.0</v>
